--- a/REGULAR/MALIGAYO, YOLANDA.xlsx
+++ b/REGULAR/MALIGAYO, YOLANDA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B4CFCB-AD30-4543-A3FF-87D920E3669E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C12D9AF-06A4-4EC0-9AD6-FFC7BA603997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="96">
   <si>
     <t>PERIOD</t>
   </si>
@@ -319,6 +319,9 @@
   </si>
   <si>
     <t>3/3,6,7,8,9,10</t>
+  </si>
+  <si>
+    <t>3/21,22/2023</t>
   </si>
 </sst>
 </file>
@@ -1013,7 +1016,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K163" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K164" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
@@ -1342,12 +1345,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K163"/>
+  <dimension ref="A2:K164"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4056" topLeftCell="A106" activePane="bottomLeft"/>
-      <selection activeCell="F3" sqref="F3:G3"/>
-      <selection pane="bottomLeft" activeCell="B115" sqref="B115"/>
+      <pane ySplit="4056" topLeftCell="A7"/>
+      <selection activeCell="B2" sqref="B2:C2"/>
+      <selection pane="bottomLeft" activeCell="I117" sqref="I117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1510,7 +1513,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>129.91999999999999</v>
+        <v>131.16999999999999</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1520,7 +1523,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>165.35</v>
+        <v>163.6</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3849,25 +3852,33 @@
       <c r="A115" s="40">
         <v>44986</v>
       </c>
-      <c r="B115" s="20"/>
-      <c r="C115" s="13"/>
+      <c r="B115" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C115" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D115" s="39"/>
       <c r="E115" s="9"/>
       <c r="F115" s="20"/>
-      <c r="G115" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H115" s="39"/>
+      <c r="G115" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H115" s="39">
+        <v>2</v>
+      </c>
       <c r="I115" s="9"/>
       <c r="J115" s="11"/>
-      <c r="K115" s="20"/>
+      <c r="K115" s="20" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A116" s="40">
-        <v>45017</v>
-      </c>
-      <c r="B116" s="20"/>
+      <c r="A116" s="40"/>
+      <c r="B116" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C116" s="13"/>
       <c r="D116" s="39"/>
       <c r="E116" s="9"/>
@@ -3876,14 +3887,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H116" s="39"/>
+      <c r="H116" s="39">
+        <v>1</v>
+      </c>
       <c r="I116" s="9"/>
       <c r="J116" s="11"/>
-      <c r="K116" s="20"/>
+      <c r="K116" s="49">
+        <v>44999</v>
+      </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -3901,7 +3916,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -3919,7 +3934,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -3937,7 +3952,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -3955,7 +3970,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -3973,7 +3988,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -3991,7 +4006,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -4009,7 +4024,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -4027,7 +4042,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -4045,7 +4060,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -4063,7 +4078,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -4081,7 +4096,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -4099,7 +4114,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -4117,7 +4132,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -4135,7 +4150,7 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -4153,7 +4168,7 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -4171,7 +4186,7 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -4189,7 +4204,7 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -4207,7 +4222,7 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -4225,7 +4240,7 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -4243,7 +4258,7 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -4261,7 +4276,7 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -4279,7 +4294,7 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -4297,7 +4312,7 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -4315,7 +4330,7 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -4333,7 +4348,7 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B142" s="20"/>
       <c r="C142" s="13"/>
@@ -4351,7 +4366,7 @@
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B143" s="20"/>
       <c r="C143" s="13"/>
@@ -4369,7 +4384,7 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B144" s="20"/>
       <c r="C144" s="13"/>
@@ -4387,7 +4402,7 @@
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B145" s="20"/>
       <c r="C145" s="13"/>
@@ -4405,7 +4420,7 @@
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B146" s="20"/>
       <c r="C146" s="13"/>
@@ -4423,7 +4438,7 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B147" s="20"/>
       <c r="C147" s="13"/>
@@ -4441,7 +4456,7 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B148" s="20"/>
       <c r="C148" s="13"/>
@@ -4459,7 +4474,7 @@
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B149" s="20"/>
       <c r="C149" s="13"/>
@@ -4477,7 +4492,7 @@
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B150" s="20"/>
       <c r="C150" s="13"/>
@@ -4495,7 +4510,7 @@
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B151" s="20"/>
       <c r="C151" s="13"/>
@@ -4513,7 +4528,7 @@
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B152" s="20"/>
       <c r="C152" s="13"/>
@@ -4531,7 +4546,7 @@
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B153" s="20"/>
       <c r="C153" s="13"/>
@@ -4549,7 +4564,7 @@
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B154" s="20"/>
       <c r="C154" s="13"/>
@@ -4567,7 +4582,7 @@
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B155" s="20"/>
       <c r="C155" s="13"/>
@@ -4584,7 +4599,9 @@
       <c r="K155" s="20"/>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A156" s="40"/>
+      <c r="A156" s="40">
+        <v>46204</v>
+      </c>
       <c r="B156" s="20"/>
       <c r="C156" s="13"/>
       <c r="D156" s="39"/>
@@ -4696,20 +4713,36 @@
       <c r="K162" s="20"/>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A163" s="41"/>
-      <c r="B163" s="15"/>
-      <c r="C163" s="42"/>
-      <c r="D163" s="43"/>
+      <c r="A163" s="40"/>
+      <c r="B163" s="20"/>
+      <c r="C163" s="13"/>
+      <c r="D163" s="39"/>
       <c r="E163" s="9"/>
-      <c r="F163" s="15"/>
-      <c r="G163" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H163" s="43"/>
+      <c r="F163" s="20"/>
+      <c r="G163" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H163" s="39"/>
       <c r="I163" s="9"/>
-      <c r="J163" s="12"/>
-      <c r="K163" s="15"/>
+      <c r="J163" s="11"/>
+      <c r="K163" s="20"/>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A164" s="41"/>
+      <c r="B164" s="15"/>
+      <c r="C164" s="42"/>
+      <c r="D164" s="43"/>
+      <c r="E164" s="9"/>
+      <c r="F164" s="15"/>
+      <c r="G164" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H164" s="43"/>
+      <c r="I164" s="9"/>
+      <c r="J164" s="12"/>
+      <c r="K164" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
